--- a/CodeSystem-pco-care-tradeoff-choices.xlsx
+++ b/CodeSystem-pco-care-tradeoff-choices.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-23T14:45:33+00:00</t>
+    <t>2024-12-27T16:03:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -123,7 +123,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>2</t>
+    <t>3</t>
   </si>
   <si>
     <t>Level</t>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>Bothersome</t>
+  </si>
+  <si>
+    <t>unspecified</t>
+  </si>
+  <si>
+    <t>Unspecified</t>
   </si>
 </sst>
 </file>
@@ -463,7 +469,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -507,6 +513,18 @@
       </c>
       <c r="D3" s="2"/>
     </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/CodeSystem-pco-care-tradeoff-choices.xlsx
+++ b/CodeSystem-pco-care-tradeoff-choices.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-27T16:03:14+00:00</t>
+    <t>2024-12-28T21:18:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-pco-care-tradeoff-choices.xlsx
+++ b/CodeSystem-pco-care-tradeoff-choices.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-28T21:18:04+00:00</t>
+    <t>2025-01-02T22:55:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-pco-care-tradeoff-choices.xlsx
+++ b/CodeSystem-pco-care-tradeoff-choices.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T22:55:55+00:00</t>
+    <t>2025-01-06T17:40:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
